--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Serping1</t>
+  </si>
+  <si>
+    <t>Sele</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Serping1</t>
-  </si>
-  <si>
-    <t>Sele</t>
   </si>
 </sst>
 </file>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H2">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I2">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J2">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>67.31676322402777</v>
+        <v>283.651157016136</v>
       </c>
       <c r="R2">
-        <v>605.8508690162499</v>
+        <v>2552.860413145224</v>
       </c>
       <c r="S2">
-        <v>0.01898676163337782</v>
+        <v>0.08783203055650859</v>
       </c>
       <c r="T2">
-        <v>0.01898676163337782</v>
+        <v>0.08783203055650859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H3">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I3">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J3">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>0.9715065949506665</v>
+        <v>4.762192593032</v>
       </c>
       <c r="R3">
-        <v>8.743559354555998</v>
+        <v>42.859733337288</v>
       </c>
       <c r="S3">
-        <v>0.0002740144246418385</v>
+        <v>0.001474603698949027</v>
       </c>
       <c r="T3">
-        <v>0.0002740144246418385</v>
+        <v>0.001474603698949027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H4">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I4">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J4">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>0.7286493072646668</v>
+        <v>5.643520520904</v>
       </c>
       <c r="R4">
-        <v>6.557843765382001</v>
+        <v>50.79168468813599</v>
       </c>
       <c r="S4">
-        <v>0.0002055162792857219</v>
+        <v>0.001747505182254996</v>
       </c>
       <c r="T4">
-        <v>0.0002055162792857218</v>
+        <v>0.001747505182254997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H5">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I5">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J5">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>0.3407725796482222</v>
+        <v>0.6058623342893333</v>
       </c>
       <c r="R5">
-        <v>3.066953216833999</v>
+        <v>5.452761008604</v>
       </c>
       <c r="S5">
-        <v>9.611525318648442E-05</v>
+        <v>0.0001876040965886529</v>
       </c>
       <c r="T5">
-        <v>9.611525318648442E-05</v>
+        <v>0.0001876040965886529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.744420666666667</v>
+        <v>37.962092</v>
       </c>
       <c r="H6">
-        <v>23.233262</v>
+        <v>113.886276</v>
       </c>
       <c r="I6">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J6">
-        <v>0.02402057549124297</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,42 +809,42 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>15.80624641435667</v>
+        <v>81.46237236963465</v>
       </c>
       <c r="R6">
-        <v>142.25621772921</v>
+        <v>733.161351326712</v>
       </c>
       <c r="S6">
-        <v>0.004458167900751102</v>
+        <v>0.02522466558727418</v>
       </c>
       <c r="T6">
-        <v>0.004458167900751102</v>
+        <v>0.02522466558727419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>215.379898</v>
+        <v>37.962092</v>
       </c>
       <c r="H7">
-        <v>646.139694</v>
+        <v>113.886276</v>
       </c>
       <c r="I7">
-        <v>0.6680356506811497</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="J7">
-        <v>0.6680356506811497</v>
+        <v>0.1172058542789894</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>1872.144892552916</v>
+        <v>2.388018051290666</v>
       </c>
       <c r="R7">
-        <v>16849.30403297625</v>
+        <v>21.492162461616</v>
       </c>
       <c r="S7">
-        <v>0.5280403738330711</v>
+        <v>0.0007394451574139859</v>
       </c>
       <c r="T7">
-        <v>0.5280403738330711</v>
+        <v>0.0007394451574139859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>646.139694</v>
       </c>
       <c r="I8">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J8">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>27.018546684508</v>
+        <v>1609.309551900284</v>
       </c>
       <c r="R8">
-        <v>243.1669201605719</v>
+        <v>14483.78596710256</v>
       </c>
       <c r="S8">
-        <v>0.0076206086123276</v>
+        <v>0.4983195810808768</v>
       </c>
       <c r="T8">
-        <v>0.0076206086123276</v>
+        <v>0.4983195810808768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>646.139694</v>
       </c>
       <c r="I9">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J9">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>20.264448463126</v>
+        <v>27.018546684508</v>
       </c>
       <c r="R9">
-        <v>182.380036168134</v>
+        <v>243.166920160572</v>
       </c>
       <c r="S9">
-        <v>0.005715608329544722</v>
+        <v>0.008366240571517088</v>
       </c>
       <c r="T9">
-        <v>0.005715608329544721</v>
+        <v>0.008366240571517088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>646.139694</v>
       </c>
       <c r="I10">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J10">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>9.477218065095332</v>
+        <v>32.01880639647599</v>
       </c>
       <c r="R10">
-        <v>85.29496258585799</v>
+        <v>288.169257568284</v>
       </c>
       <c r="S10">
-        <v>0.002673059008358257</v>
+        <v>0.00991456129205294</v>
       </c>
       <c r="T10">
-        <v>0.002673059008358257</v>
+        <v>0.00991456129205294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,72 +1107,72 @@
         <v>646.139694</v>
       </c>
       <c r="I11">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J11">
-        <v>0.6680356506811497</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>439.58714111953</v>
+        <v>3.437391378780667</v>
       </c>
       <c r="R11">
-        <v>3956.28427007577</v>
+        <v>30.936522409026</v>
       </c>
       <c r="S11">
-        <v>0.1239860008978481</v>
+        <v>0.00106438157274489</v>
       </c>
       <c r="T11">
-        <v>0.1239860008978481</v>
+        <v>0.00106438157274489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3580746666666667</v>
+        <v>215.379898</v>
       </c>
       <c r="H12">
-        <v>1.074224</v>
+        <v>646.139694</v>
       </c>
       <c r="I12">
-        <v>0.001110626595891054</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J12">
-        <v>0.001110626595891054</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,90 +1181,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>3.112489441111111</v>
+        <v>462.1809949728253</v>
       </c>
       <c r="R12">
-        <v>28.01240497</v>
+        <v>4159.628954755428</v>
       </c>
       <c r="S12">
-        <v>0.0008778808171170134</v>
+        <v>0.1431134485757851</v>
       </c>
       <c r="T12">
-        <v>0.0008778808171170134</v>
+        <v>0.1431134485757851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3580746666666667</v>
+        <v>215.379898</v>
       </c>
       <c r="H13">
-        <v>1.074224</v>
+        <v>646.139694</v>
       </c>
       <c r="I13">
-        <v>0.001110626595891054</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="J13">
-        <v>0.001110626595891054</v>
+        <v>0.6649734935475002</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>0.04491903463466666</v>
+        <v>13.54854427698933</v>
       </c>
       <c r="R13">
-        <v>0.404271311712</v>
+        <v>121.936898492904</v>
       </c>
       <c r="S13">
-        <v>1.266945947135853E-05</v>
+        <v>0.004195280454523376</v>
       </c>
       <c r="T13">
-        <v>1.266945947135853E-05</v>
+        <v>0.004195280454523376</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H14">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I14">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J14">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>0.03369017116266668</v>
+        <v>521.1732797030068</v>
       </c>
       <c r="R14">
-        <v>0.3032115404640001</v>
+        <v>4690.55951732706</v>
       </c>
       <c r="S14">
-        <v>9.502347091830038E-06</v>
+        <v>0.1613802951119507</v>
       </c>
       <c r="T14">
-        <v>9.502347091830036E-06</v>
+        <v>0.1613802951119507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3580746666666667</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H15">
-        <v>1.074224</v>
+        <v>209.25169</v>
       </c>
       <c r="I15">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J15">
-        <v>0.001110626595891054</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>0.01575612084088889</v>
+        <v>8.749929167913333</v>
       </c>
       <c r="R15">
-        <v>0.141805087568</v>
+        <v>78.74936251122</v>
       </c>
       <c r="S15">
-        <v>4.444029931698702E-06</v>
+        <v>0.002709398594132055</v>
       </c>
       <c r="T15">
-        <v>4.444029931698702E-06</v>
+        <v>0.002709398594132055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,75 +1396,75 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>69.75056333333333</v>
+      </c>
+      <c r="H16">
+        <v>209.25169</v>
+      </c>
+      <c r="I16">
+        <v>0.2153509970399969</v>
+      </c>
+      <c r="J16">
+        <v>0.2153509970399969</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.3580746666666667</v>
-      </c>
-      <c r="H16">
-        <v>1.074224</v>
-      </c>
-      <c r="I16">
-        <v>0.001110626595891054</v>
-      </c>
-      <c r="J16">
-        <v>0.001110626595891054</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>0.7308250235466668</v>
+        <v>10.36925824626</v>
       </c>
       <c r="R16">
-        <v>6.577425211920001</v>
+        <v>93.32332421634</v>
       </c>
       <c r="S16">
-        <v>0.0002061299422791536</v>
+        <v>0.003210820702141635</v>
       </c>
       <c r="T16">
-        <v>0.0002061299422791536</v>
+        <v>0.003210820702141635</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>97.08690133333334</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H17">
-        <v>291.260704</v>
+        <v>209.25169</v>
       </c>
       <c r="I17">
-        <v>0.301130755038383</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J17">
-        <v>0.301130755038383</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>843.9076634022223</v>
+        <v>1.113195740612222</v>
       </c>
       <c r="R17">
-        <v>7595.16897062</v>
+        <v>10.01876166551</v>
       </c>
       <c r="S17">
-        <v>0.2380250160316625</v>
+        <v>0.0003446989017544034</v>
       </c>
       <c r="T17">
-        <v>0.2380250160316625</v>
+        <v>0.0003446989017544034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,60 +1535,60 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>97.08690133333334</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H18">
-        <v>291.260704</v>
+        <v>209.25169</v>
       </c>
       <c r="I18">
-        <v>0.301130755038383</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J18">
-        <v>0.301130755038383</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>12.17916342466133</v>
+        <v>149.6768503498644</v>
       </c>
       <c r="R18">
-        <v>109.612470821952</v>
+        <v>1347.09165314878</v>
       </c>
       <c r="S18">
-        <v>0.003435145449112433</v>
+        <v>0.04634714637452862</v>
       </c>
       <c r="T18">
-        <v>0.003435145449112433</v>
+        <v>0.04634714637452862</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>97.08690133333334</v>
+        <v>69.75056333333333</v>
       </c>
       <c r="H19">
-        <v>291.260704</v>
+        <v>209.25169</v>
       </c>
       <c r="I19">
-        <v>0.301130755038383</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="J19">
-        <v>0.301130755038383</v>
+        <v>0.2153509970399969</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>9.134615285749335</v>
+        <v>4.387682436671111</v>
       </c>
       <c r="R19">
-        <v>82.21153757174402</v>
+        <v>39.48914193004</v>
       </c>
       <c r="S19">
-        <v>0.00257642754548285</v>
+        <v>0.001358637355489546</v>
       </c>
       <c r="T19">
-        <v>0.002576427545482849</v>
+        <v>0.001358637355489546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H20">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I20">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J20">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>4.272050194769778</v>
+        <v>3.701894418256666</v>
       </c>
       <c r="R20">
-        <v>38.448451752928</v>
+        <v>33.31704976431</v>
       </c>
       <c r="S20">
-        <v>0.001204936108766547</v>
+        <v>0.001146284425847738</v>
       </c>
       <c r="T20">
-        <v>0.001204936108766547</v>
+        <v>0.001146284425847738</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,75 +1706,75 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>97.08690133333334</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H21">
-        <v>291.260704</v>
+        <v>1.486315</v>
       </c>
       <c r="I21">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J21">
-        <v>0.301130755038383</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>198.1529093178134</v>
+        <v>0.06215075716333333</v>
       </c>
       <c r="R21">
-        <v>1783.37618386032</v>
+        <v>0.55935681447</v>
       </c>
       <c r="S21">
-        <v>0.05588922990335873</v>
+        <v>1.924486139843069E-05</v>
       </c>
       <c r="T21">
-        <v>0.05588922990335873</v>
+        <v>1.924486139843069E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,60 +1783,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.7716893333333333</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H22">
-        <v>2.315068</v>
+        <v>1.486315</v>
       </c>
       <c r="I22">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J22">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>6.707748761388888</v>
+        <v>0.07365285350999998</v>
       </c>
       <c r="R22">
-        <v>60.3697388525</v>
+        <v>0.6628756815899999</v>
       </c>
       <c r="S22">
-        <v>0.001891927370382202</v>
+        <v>2.280646322093572E-05</v>
       </c>
       <c r="T22">
-        <v>0.001891927370382202</v>
+        <v>2.280646322093573E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1845,60 +1845,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.7716893333333333</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H23">
-        <v>2.315068</v>
+        <v>1.486315</v>
       </c>
       <c r="I23">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J23">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>0.09680534010933331</v>
+        <v>0.007907030653888888</v>
       </c>
       <c r="R23">
-        <v>0.871248060984</v>
+        <v>0.07116327588499999</v>
       </c>
       <c r="S23">
-        <v>2.730404477970987E-05</v>
+        <v>2.448396704280362E-06</v>
       </c>
       <c r="T23">
-        <v>2.730404477970987E-05</v>
+        <v>2.448396704280362E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,60 +1907,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.7716893333333333</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H24">
-        <v>2.315068</v>
+        <v>1.486315</v>
       </c>
       <c r="I24">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J24">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>0.07260593430533335</v>
+        <v>1.063154843947777</v>
       </c>
       <c r="R24">
-        <v>0.6534534087480002</v>
+        <v>9.568393595529999</v>
       </c>
       <c r="S24">
-        <v>2.047857772418861E-05</v>
+        <v>0.0003292038351693001</v>
       </c>
       <c r="T24">
-        <v>2.04785777241886E-05</v>
+        <v>0.0003292038351693002</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,46 +1969,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.7716893333333333</v>
+        <v>0.4954383333333333</v>
       </c>
       <c r="H25">
-        <v>2.315068</v>
+        <v>1.486315</v>
       </c>
       <c r="I25">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="J25">
-        <v>0.002393519500677988</v>
+        <v>0.001529638385073511</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>0.03395613127511111</v>
+        <v>0.03116571350444444</v>
       </c>
       <c r="R25">
-        <v>0.305605181476</v>
+        <v>0.28049142154</v>
       </c>
       <c r="S25">
-        <v>9.577361412440841E-06</v>
+        <v>9.650402732825932E-06</v>
       </c>
       <c r="T25">
-        <v>9.577361412440841E-06</v>
+        <v>9.650402732825932E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.7716893333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H26">
-        <v>2.315068</v>
+        <v>0.913393</v>
       </c>
       <c r="I26">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J26">
-        <v>0.002393519500677988</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,122 +2049,122 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.040985</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N26">
-        <v>6.122955</v>
+        <v>22.415874</v>
       </c>
       <c r="O26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q26">
-        <v>1.575006353993333</v>
+        <v>2.274944711164667</v>
       </c>
       <c r="R26">
-        <v>14.17505718594</v>
+        <v>20.474502400482</v>
       </c>
       <c r="S26">
-        <v>0.0004442321463794474</v>
+        <v>0.0007044322169784624</v>
       </c>
       <c r="T26">
-        <v>0.0004442321463794474</v>
+        <v>0.0007044322169784624</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.066806333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H27">
-        <v>3.200419</v>
+        <v>0.913393</v>
       </c>
       <c r="I27">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J27">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>8.692291666666666</v>
+        <v>0.125446</v>
       </c>
       <c r="N27">
-        <v>26.076875</v>
+        <v>0.376338</v>
       </c>
       <c r="O27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q27">
-        <v>9.272991801180554</v>
+        <v>0.03819383275933334</v>
       </c>
       <c r="R27">
-        <v>83.456926210625</v>
+        <v>0.343744494834</v>
       </c>
       <c r="S27">
-        <v>0.002615456782604759</v>
+        <v>1.182664622727807E-05</v>
       </c>
       <c r="T27">
-        <v>0.00261545678260476</v>
+        <v>1.182664622727807E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.066806333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H28">
-        <v>3.200419</v>
+        <v>0.913393</v>
       </c>
       <c r="I28">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J28">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,60 +2173,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.125446</v>
+        <v>0.148662</v>
       </c>
       <c r="N28">
-        <v>0.376338</v>
+        <v>0.445986</v>
       </c>
       <c r="O28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q28">
-        <v>0.1338265872913333</v>
+        <v>0.045262276722</v>
       </c>
       <c r="R28">
-        <v>1.204439285622</v>
+        <v>0.407360490498</v>
       </c>
       <c r="S28">
-        <v>3.774592525568764E-05</v>
+        <v>1.401537618927357E-05</v>
       </c>
       <c r="T28">
-        <v>3.774592525568764E-05</v>
+        <v>1.401537618927357E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.066806333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H29">
-        <v>3.200419</v>
+        <v>0.913393</v>
       </c>
       <c r="I29">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J29">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,152 +2235,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.09408700000000002</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N29">
-        <v>0.282261</v>
+        <v>0.047879</v>
       </c>
       <c r="O29">
-        <v>0.00855584327530561</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P29">
-        <v>0.008555843275305609</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q29">
-        <v>0.1003726074843334</v>
+        <v>0.004859149271888889</v>
       </c>
       <c r="R29">
-        <v>0.9033534673590001</v>
+        <v>0.043732343447</v>
       </c>
       <c r="S29">
-        <v>2.831019617629805E-05</v>
+        <v>1.504626146484933E-06</v>
       </c>
       <c r="T29">
-        <v>2.831019617629804E-05</v>
+        <v>1.504626146484933E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.066806333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H30">
-        <v>3.200419</v>
+        <v>0.913393</v>
       </c>
       <c r="I30">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J30">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04400233333333333</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N30">
-        <v>0.132007</v>
+        <v>6.437662</v>
       </c>
       <c r="O30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q30">
-        <v>0.04694196788144444</v>
+        <v>0.6533461563517777</v>
       </c>
       <c r="R30">
-        <v>0.422477710933</v>
+        <v>5.880115407166</v>
       </c>
       <c r="S30">
-        <v>1.324002985408744E-05</v>
+        <v>0.0002023073699833431</v>
       </c>
       <c r="T30">
-        <v>1.324002985408744E-05</v>
+        <v>0.0002023073699833431</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.066806333333333</v>
+        <v>0.3044643333333333</v>
       </c>
       <c r="H31">
-        <v>3.200419</v>
+        <v>0.913393</v>
       </c>
       <c r="I31">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="J31">
-        <v>0.003308872692655397</v>
+        <v>0.0009400167484398999</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>2.040985</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N31">
-        <v>6.122955</v>
+        <v>0.188716</v>
       </c>
       <c r="O31">
-        <v>0.1855978805493811</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P31">
-        <v>0.1855978805493811</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q31">
-        <v>2.177335724238333</v>
+        <v>0.01915243037644444</v>
       </c>
       <c r="R31">
-        <v>19.596021518145</v>
+        <v>0.172371873388</v>
       </c>
       <c r="S31">
-        <v>0.0006141197587645653</v>
+        <v>5.930512915057762E-06</v>
       </c>
       <c r="T31">
-        <v>0.0006141197587645654</v>
+        <v>5.930512915057762E-06</v>
       </c>
     </row>
   </sheetData>
